--- a/root_node/no_exact/datos_verificacion_sigmoid_1como7.xlsx
+++ b/root_node/no_exact/datos_verificacion_sigmoid_1como7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr"/>
+      <c r="Q1" t="inlineStr"/>
+      <c r="R1" t="inlineStr"/>
+      <c r="S1" t="inlineStr"/>
+      <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +544,12 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -597,6 +609,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +674,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -715,6 +739,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -774,6 +804,12 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -833,6 +869,12 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -892,6 +934,12 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -951,6 +999,12 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1010,6 +1064,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1069,6 +1129,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1124,6 +1190,1306 @@
         </is>
       </c>
       <c r="O12" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.02932906150817871</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2615401744842529</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.08945220802453333</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.00946354866027832</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.01337456703186035</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.01178240776062012</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01568293571472168</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2304060459136963</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>86.80244926262482</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.22725510597229</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>86.80245272512049</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.02775955200195312</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.03699278831481934</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.03542399406433105</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.03386998176574707</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3854870796203613</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4737818963341147</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.3858268260955811</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.4737818963341147</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.2624502182006836</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.08945220802453333</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6044776439666748</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>687.9002346507132</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0.6524937152862549</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>687.4356424286492</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.03939461708068848</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01918530464172363</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0.3483693599700928</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>632.3712716580037</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.009554862976074219</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01160287857055664</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.01166868209838867</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.0108485221862793</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.03265929222106934</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0327761173248291</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.01367378234863281</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.03249239921569824</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0.03247284889221191</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.01364040374755859</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.08314085006713867</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0.07992386817932129</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.01206564903259277</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.09743070602416992</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01885173199691185</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8283381462097168</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.01883836954913904</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.4298596382141113</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.01820817897855163</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.3082156181335449</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0001189919045044542</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2047147750854492</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0003742342811313611</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.01571893692016602</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2.66411018371582</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>56.76805203497783</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>3.394834280014038</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>56.7680519657733</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>5.188748359680176</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>56.76805196611012</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
         <is>
           <t>totalnodelimit</t>
         </is>

--- a/root_node/no_exact/datos_verificacion_sigmoid_1como7.xlsx
+++ b/root_node/no_exact/datos_verificacion_sigmoid_1como7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2495,6 +2495,578 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.03035449981689453</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.03272223472595215</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3529961109161377</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.2588347761028013</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.01635479927062988</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.009140491485595703</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.01080513000488281</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.029296875</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.03431940078735352</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.05920910835266113</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.839166630695274e-05</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1.115667581558228</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3751015663146973</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>5.046470642089844</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>56.76805203497781</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/root_node/no_exact/datos_verificacion_sigmoid_1como7.xlsx
+++ b/root_node/no_exact/datos_verificacion_sigmoid_1como7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\DOCUME~1\MobaXterm\slash\pablo_desktopsm6qdlg\RemoteFiles\1376490_2_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\DOCUME~1\MobaXterm\slash\pablo_desktopsm6qdlg\RemoteFiles\198686_2_9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF972039-FF40-4D0D-B6EA-A37EFCA245A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFB33CE-FC50-424C-A36D-C95C37E85A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,9 +386,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -402,10 +415,10 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>0.23337459564208979</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>86.802449262624819</v>
       </c>
       <c r="G1" t="s">
@@ -417,10 +430,10 @@
       <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1">
         <v>0.22923851013183591</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="1">
         <v>86.802452725120489</v>
       </c>
       <c r="L1" t="s">
@@ -432,10 +445,10 @@
       <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="1">
         <v>0.24022459983825681</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="1">
         <v>75.350572910789793</v>
       </c>
       <c r="Q1" t="s">
@@ -447,10 +460,10 @@
       <c r="S1" t="s">
         <v>5</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="1">
         <v>0.16999936103820801</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="1">
         <v>86.613221228012648</v>
       </c>
       <c r="V1" t="s">
@@ -473,10 +486,10 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>3.7463665008544922E-2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" t="s">
@@ -488,10 +501,10 @@
       <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>3.6077022552490227E-2</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" t="s">
@@ -503,10 +516,10 @@
       <c r="N2" t="s">
         <v>4</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>3.287196159362793E-2</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
@@ -518,10 +531,10 @@
       <c r="S2" t="s">
         <v>5</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>3.2705545425415039E-2</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <v>0</v>
       </c>
       <c r="V2" t="s">
@@ -544,10 +557,10 @@
       <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.38461518287658691</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.47378189633411472</v>
       </c>
       <c r="G3" t="s">
@@ -559,10 +572,10 @@
       <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>0.38497447967529302</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>0.47378189633411472</v>
       </c>
       <c r="L3" t="s">
@@ -574,10 +587,10 @@
       <c r="N3" t="s">
         <v>4</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>0.25105977058410639</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>0.18585369372945029</v>
       </c>
       <c r="Q3" t="s">
@@ -589,10 +602,10 @@
       <c r="S3" t="s">
         <v>5</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>0.35133242607116699</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>0.25883477610280131</v>
       </c>
       <c r="V3" t="s">
@@ -615,10 +628,10 @@
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.60381364822387695</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>687.90023465071317</v>
       </c>
       <c r="G4" t="s">
@@ -630,10 +643,10 @@
       <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>0.65374922752380371</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>687.4356424286492</v>
       </c>
       <c r="L4" t="s">
@@ -645,10 +658,10 @@
       <c r="N4" t="s">
         <v>4</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>0.39898800849914551</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>7.9996994036438123</v>
       </c>
       <c r="Q4" t="s">
@@ -660,10 +673,10 @@
       <c r="S4" t="s">
         <v>5</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>0.27807188034057623</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="1">
         <v>435.96291710891222</v>
       </c>
       <c r="V4" t="s">
@@ -686,10 +699,10 @@
       <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1.893925666809082E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" t="s">
@@ -701,10 +714,10 @@
       <c r="I5" t="s">
         <v>3</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>0.35335302352905268</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>632.37127165800371</v>
       </c>
       <c r="L5" t="s">
@@ -716,10 +729,10 @@
       <c r="N5" t="s">
         <v>4</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>0.1464688777923584</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>262.52302697354162</v>
       </c>
       <c r="Q5" t="s">
@@ -731,10 +744,10 @@
       <c r="S5" t="s">
         <v>5</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>1.614785194396973E-2</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>0</v>
       </c>
       <c r="V5" t="s">
@@ -757,10 +770,10 @@
       <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>1.1446714401245121E-2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" t="s">
@@ -772,10 +785,10 @@
       <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>1.140213012695312E-2</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>0</v>
       </c>
       <c r="L6" t="s">
@@ -787,10 +800,10 @@
       <c r="N6" t="s">
         <v>4</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>1.1358261108398439E-2</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
@@ -802,10 +815,10 @@
       <c r="S6" t="s">
         <v>5</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="1">
         <v>1.054739952087402E-2</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="1">
         <v>0</v>
       </c>
       <c r="V6" t="s">
@@ -828,10 +841,10 @@
       <c r="D7" t="s">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>3.2397747039794922E-2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" t="s">
@@ -843,10 +856,10 @@
       <c r="I7" t="s">
         <v>3</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>3.235316276550293E-2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" t="s">
@@ -858,10 +871,10 @@
       <c r="N7" t="s">
         <v>4</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>3.0278921127319339E-2</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
@@ -873,10 +886,10 @@
       <c r="S7" t="s">
         <v>5</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="1">
         <v>2.8893232345581051E-2</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="1">
         <v>0</v>
       </c>
       <c r="V7" t="s">
@@ -899,10 +912,10 @@
       <c r="D8" t="s">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>3.2367706298828118E-2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" t="s">
@@ -914,10 +927,10 @@
       <c r="I8" t="s">
         <v>3</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>3.2235145568847663E-2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>0</v>
       </c>
       <c r="L8" t="s">
@@ -929,10 +942,10 @@
       <c r="N8" t="s">
         <v>4</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>3.1073331832885739E-2</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
@@ -944,10 +957,10 @@
       <c r="S8" t="s">
         <v>5</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="1">
         <v>3.041529655456543E-2</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="1">
         <v>0</v>
       </c>
       <c r="V8" t="s">
@@ -970,10 +983,10 @@
       <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>8.2414150238037109E-2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" t="s">
@@ -985,10 +998,10 @@
       <c r="I9" t="s">
         <v>3</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>7.9363822937011719E-2</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9" t="s">
@@ -1000,10 +1013,10 @@
       <c r="N9" t="s">
         <v>4</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>1.2451887130737299E-2</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
@@ -1015,10 +1028,10 @@
       <c r="S9" t="s">
         <v>5</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="1">
         <v>5.7985782623291023E-2</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="1">
         <v>2.8391666306952741E-5</v>
       </c>
       <c r="V9" t="s">
@@ -1041,10 +1054,10 @@
       <c r="D10" t="s">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>9.7266912460327148E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>1.8851731996911852E-2</v>
       </c>
       <c r="G10" t="s">
@@ -1056,10 +1069,10 @@
       <c r="I10" t="s">
         <v>3</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>0.82781887054443359</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>1.883836954913904E-2</v>
       </c>
       <c r="L10" t="s">
@@ -1071,10 +1084,10 @@
       <c r="N10" t="s">
         <v>4</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>0.8165431022644043</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>1.841761546220572E-2</v>
       </c>
       <c r="Q10" t="s">
@@ -1086,10 +1099,10 @@
       <c r="S10" t="s">
         <v>5</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="1">
         <v>1.11390209197998</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="1">
         <v>0</v>
       </c>
       <c r="V10" t="s">
@@ -1112,10 +1125,10 @@
       <c r="D11" t="s">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.31387734413146973</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>1.189919045044542E-4</v>
       </c>
       <c r="G11" t="s">
@@ -1127,10 +1140,10 @@
       <c r="I11" t="s">
         <v>3</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>0.21012783050537109</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>3.7423428113136112E-4</v>
       </c>
       <c r="L11" t="s">
@@ -1142,10 +1155,10 @@
       <c r="N11" t="s">
         <v>4</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>4.0479183197021477E-2</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
@@ -1157,10 +1170,10 @@
       <c r="S11" t="s">
         <v>5</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="1">
         <v>0.37427902221679688</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="1">
         <v>0</v>
       </c>
       <c r="V11" t="s">
@@ -1183,10 +1196,10 @@
       <c r="D12" t="s">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>2.671547651290894</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>56.768052034977828</v>
       </c>
       <c r="G12" t="s">
@@ -1198,10 +1211,10 @@
       <c r="I12" t="s">
         <v>3</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>3.396190881729126</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>56.768051965773303</v>
       </c>
       <c r="L12" t="s">
@@ -1213,10 +1226,10 @@
       <c r="N12" t="s">
         <v>4</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <v>4.9520976543426514</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="1">
         <v>56.768052030057113</v>
       </c>
       <c r="Q12" t="s">
@@ -1228,10 +1241,10 @@
       <c r="S12" t="s">
         <v>5</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="1">
         <v>5.0267980098724374</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="1">
         <v>56.768052034977813</v>
       </c>
       <c r="V12" t="s">
